--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_02-04_end.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_02-04_end.xlsx
@@ -492,7 +492,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Misha"]   I don't know anything about this "Reunion" that you're talking about, but...
+    <t xml:space="preserve">[name="Misha"]   I don't know anything about this 'Reunion' that you're talking about, but...
 </t>
   </si>
   <si>
